--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="129">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,130 +58,130 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
   </si>
   <si>
     <t>hope</t>
@@ -766,10 +766,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -998,7 +998,7 @@
         <v>96</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1098,7 +1098,7 @@
         <v>444</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>0.9655172413793104</v>
@@ -1123,32 +1123,8 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>228</v>
-      </c>
-      <c r="E9">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>112</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>0.9555555555555556</v>
@@ -1174,7 +1150,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>0.9444444444444444</v>
@@ -1200,7 +1176,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>0.9333333333333333</v>
@@ -1226,7 +1202,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>0.9166666666666666</v>
@@ -1252,7 +1228,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>0.9145299145299145</v>
@@ -1278,7 +1254,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0.8976377952755905</v>
@@ -1304,7 +1280,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>0.8899082568807339</v>
@@ -1330,7 +1306,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>0.8846153846153846</v>
@@ -1356,7 +1332,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0.8823529411764706</v>
@@ -1382,7 +1358,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
         <v>0.8666666666666667</v>
@@ -1408,7 +1384,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
         <v>0.8666666666666667</v>
@@ -1434,7 +1410,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.8518518518518519</v>
@@ -1460,7 +1436,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
         <v>0.84</v>
@@ -1486,7 +1462,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
         <v>0.8375</v>
@@ -1512,7 +1488,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
         <v>0.8142857142857143</v>
@@ -1538,7 +1514,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <v>0.8095238095238095</v>
@@ -1564,7 +1540,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>0.8070175438596491</v>
@@ -1590,7 +1566,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>0.7948717948717948</v>
@@ -1616,7 +1592,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>0.7878787878787878</v>
@@ -1642,7 +1618,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
         <v>0.7872340425531915</v>
@@ -1668,7 +1644,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>0.7857142857142857</v>
@@ -1694,7 +1670,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>0.7727272727272727</v>
@@ -1720,68 +1696,68 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.748898678414097</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L31">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="N31">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.7450980392156863</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.7317073170731707</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L33">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>0.9399999999999999</v>
@@ -1793,64 +1769,64 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.7222222222222222</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="N35">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
         <v>0.7111111111111111</v>
@@ -1876,7 +1852,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>0.7083333333333334</v>
@@ -1902,7 +1878,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
         <v>0.696969696969697</v>
@@ -1928,7 +1904,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
         <v>0.6956521739130435</v>
@@ -1954,7 +1930,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
         <v>0.6571428571428571</v>
@@ -1980,28 +1956,28 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>0.656441717791411</v>
+        <v>0.6421052631578947</v>
       </c>
       <c r="L41">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="M41">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2009,25 +1985,25 @@
         <v>54</v>
       </c>
       <c r="K42">
-        <v>0.6421052631578947</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L42">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2035,25 +2011,25 @@
         <v>55</v>
       </c>
       <c r="K43">
-        <v>0.6296296296296297</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>10</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="10:17">
